--- a/DatabaseExcel.xlsx
+++ b/DatabaseExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghks2\Bems\Bems_modbus_poll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAB55B6-0564-4F3D-91BA-6B04120F9BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C1FD1D-9CA2-46EF-8826-FCA742FC0224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,6 +38,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Owner</author>
+    <author>김재환</author>
   </authors>
   <commentList>
     <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -63,9 +64,88 @@
 00 : MS-SQL
 01 : My-SQL
 02 : Maria
-03: Acces
-04 : Excel
-05 : Text</t>
+03 : PostgreSQL
+04: Acces
+05 : Excel
+06 : Text</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{9DAF809E-C128-4DA6-84BA-44F77DA3E740}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유니크한</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이름이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>저장된</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>칼럼명</t>
         </r>
       </text>
     </comment>
@@ -531,7 +611,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="283">
   <si>
     <t>Object Name</t>
   </si>
@@ -1349,10 +1429,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>AI?</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>DB_Port</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1433,7 +1509,51 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>d1</t>
+    <t>name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>log</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>logtime</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>objectname</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>logvalue</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrlvalue</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>test3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>postgres</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>pgtest</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1922,7 +2042,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1942,52 +2062,52 @@
   <sheetData>
     <row r="1" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>235</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>257</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>245</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>247</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>248</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
@@ -1995,57 +2115,93 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C2">
-        <v>8000</v>
+        <v>3306</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F2">
         <v>123123</v>
       </c>
       <c r="G2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H2" t="s">
         <v>270</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>271</v>
       </c>
-      <c r="I2" t="s">
-        <v>272</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
+      <c r="J2" t="s">
+        <v>273</v>
       </c>
       <c r="K2" t="s">
         <v>249</v>
       </c>
       <c r="L2" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="M2" t="s">
         <v>249</v>
       </c>
-      <c r="N2" t="s">
-        <v>239</v>
-      </c>
       <c r="O2" t="s">
         <v>250</v>
       </c>
       <c r="P2" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3">
+        <v>3306</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F3">
+        <v>123123</v>
+      </c>
+      <c r="G3" t="s">
+        <v>269</v>
+      </c>
+      <c r="H3" t="s">
+        <v>275</v>
+      </c>
+      <c r="I3" t="s">
+        <v>277</v>
+      </c>
+      <c r="J3" t="s">
+        <v>278</v>
+      </c>
+      <c r="K3" t="s">
+        <v>249</v>
+      </c>
+      <c r="L3" t="s">
+        <v>279</v>
+      </c>
+      <c r="M3" t="s">
+        <v>249</v>
+      </c>
+      <c r="N3" t="s">
+        <v>276</v>
+      </c>
       <c r="P3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
@@ -2053,7 +2209,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C4">
         <v>3306</v>
@@ -2062,13 +2218,13 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F4">
         <v>123123</v>
       </c>
       <c r="G4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H4" t="s">
         <v>246</v>
@@ -2095,7 +2251,7 @@
         <v>250</v>
       </c>
       <c r="P4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
@@ -2107,10 +2263,79 @@
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6">
+        <v>5432</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>281</v>
+      </c>
+      <c r="F6">
+        <v>123123</v>
+      </c>
+      <c r="G6" t="s">
+        <v>270</v>
+      </c>
+      <c r="H6" t="s">
+        <v>282</v>
+      </c>
+      <c r="I6" t="s">
+        <v>277</v>
+      </c>
+      <c r="J6" t="s">
+        <v>273</v>
+      </c>
+      <c r="K6" t="s">
+        <v>249</v>
+      </c>
+      <c r="O6" t="s">
+        <v>250</v>
+      </c>
+      <c r="P6" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7">
+        <v>8000</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F7">
+        <v>123123</v>
+      </c>
+      <c r="G7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H7" t="s">
+        <v>280</v>
+      </c>
+      <c r="I7" t="s">
+        <v>277</v>
+      </c>
+      <c r="J7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P7" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/DatabaseExcel.xlsx
+++ b/DatabaseExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghks2\Bems\Bems_modbus_poll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C1FD1D-9CA2-46EF-8826-FCA742FC0224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DC2424-15B7-42CC-85CC-689413D6B346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,7 +611,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="269">
   <si>
     <t>Object Name</t>
   </si>
@@ -1377,14 +1377,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Ctldata</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>DB_ObjectName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1417,18 +1409,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>LT_Type</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>datetime</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>DB_Port</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1453,18 +1437,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>CV_Type</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Object_Type</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ctrl_Value</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Log_Value</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1473,18 +1445,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Log_Time</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>BO</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>AO</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>104.155.144.166</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1513,35 +1473,19 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>AI</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>log</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>ctrl</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>test1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>logtime</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>objectname</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>logvalue</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrlvalue</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1618,7 +1562,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1646,6 +1590,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1679,7 +1629,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1698,7 +1648,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2039,10 +1992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2051,71 +2004,56 @@
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
     <col min="3" max="3" width="11.75" customWidth="1"/>
     <col min="5" max="5" width="11.75" customWidth="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="12.08203125" customWidth="1"/>
     <col min="7" max="7" width="11.75" customWidth="1"/>
     <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5" customWidth="1"/>
+    <col min="11" max="11" width="7.75" customWidth="1"/>
     <col min="16" max="16" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="P1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>258</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>268</v>
       </c>
       <c r="C2">
         <v>3306</v>
@@ -2124,45 +2062,33 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="F2">
         <v>123123</v>
       </c>
       <c r="G2" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="H2" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="I2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="J2" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="K2" t="s">
-        <v>249</v>
-      </c>
-      <c r="L2" t="s">
-        <v>274</v>
-      </c>
-      <c r="M2" t="s">
-        <v>249</v>
-      </c>
-      <c r="O2" t="s">
-        <v>250</v>
-      </c>
-      <c r="P2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C3">
         <v>3306</v>
@@ -2171,45 +2097,33 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="F3">
         <v>123123</v>
       </c>
       <c r="G3" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="H3" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="I3" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="J3" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="K3" t="s">
-        <v>249</v>
-      </c>
-      <c r="L3" t="s">
-        <v>279</v>
-      </c>
-      <c r="M3" t="s">
-        <v>249</v>
-      </c>
-      <c r="N3" t="s">
-        <v>276</v>
-      </c>
-      <c r="P3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C4">
         <v>3306</v>
@@ -2218,16 +2132,16 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="F4">
         <v>123123</v>
       </c>
       <c r="G4" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="H4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I4" t="s">
         <v>236</v>
@@ -2236,35 +2150,20 @@
         <v>237</v>
       </c>
       <c r="K4" t="s">
-        <v>249</v>
-      </c>
-      <c r="L4" t="s">
-        <v>238</v>
-      </c>
-      <c r="M4" t="s">
-        <v>249</v>
-      </c>
-      <c r="N4" t="s">
-        <v>239</v>
-      </c>
-      <c r="O4" t="s">
-        <v>250</v>
-      </c>
-      <c r="P4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C6">
         <v>5432</v>
@@ -2273,39 +2172,33 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="F6">
         <v>123123</v>
       </c>
       <c r="G6" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="H6" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="I6" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="J6" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="K6" t="s">
-        <v>249</v>
-      </c>
-      <c r="O6" t="s">
-        <v>250</v>
-      </c>
-      <c r="P6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C7">
         <v>8000</v>
@@ -2314,28 +2207,25 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="F7">
         <v>123123</v>
       </c>
       <c r="G7" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="H7" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="I7" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="J7" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="K7" t="s">
-        <v>249</v>
-      </c>
-      <c r="P7" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2360,7 +2250,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="37.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="7.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -2401,19 +2291,19 @@
         <v>234</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.45">
